--- a/Financial Statements/df_DAN.xlsx
+++ b/Financial Statements/df_DAN.xlsx
@@ -472,16 +472,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3479746.830000001</v>
+        <v>35700</v>
       </c>
       <c r="C2" t="n">
-        <v>-3615980.349999999</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-3306685.459999999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-3879008.06</v>
+        <v>5425</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -494,16 +494,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-674013.6499999999</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-160801.41</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-415486.73</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-359916.25</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -516,16 +516,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1993212.01</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-2008440.76</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-2023615.23</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-2144792.63</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-147358.75</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-228872.08</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-231746.92</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-165762.92</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -560,16 +560,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>94268.25999999999</v>
+        <v>10842.64</v>
       </c>
       <c r="C6" t="n">
-        <v>324971.7500000001</v>
+        <v>25229.8</v>
       </c>
       <c r="D6" t="n">
-        <v>285933.25</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>260334.2899999999</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>

--- a/Financial Statements/df_DAN.xlsx
+++ b/Financial Statements/df_DAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,33 +468,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Self-pay revenue</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>35700</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5425</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Commercial Insurance revenue</t>
+          <t>Self-pay revenue</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>35700</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -503,16 +513,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>5425</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>41125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Progyny &amp; Stork revenue</t>
+          <t>Commercial Insurance revenue</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -534,7 +544,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Storage revenue</t>
+          <t>Progyny &amp; Stork revenue</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -556,14 +566,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Medication</t>
+          <t>Storage revenue</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10842.64</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>25229.8</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -578,14 +588,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nest</t>
+          <t>Medication</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>10842.64</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>25229.8</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -594,28 +604,542 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>36072.44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Nest</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Other Revenue</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MD payroll</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Clinical payroll</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>31778.08</v>
+      </c>
+      <c r="C12" t="n">
+        <v>31242.46999999999</v>
+      </c>
+      <c r="D12" t="n">
+        <v>27656.2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>23433.28</v>
+      </c>
+      <c r="F12" t="n">
+        <v>114110.03</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Lab payroll</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ASC payroll</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Supplies</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>893.2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>729.9100000000001</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1983.47</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3606.58</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Medication</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10842.64</v>
+      </c>
+      <c r="C16" t="n">
+        <v>25229.8</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>36072.44</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Medical services</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2621.409999999999</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1992.38</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2447.79</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2339.97</v>
+      </c>
+      <c r="F17" t="n">
+        <v>9401.549999999999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Payroll</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Professional fees</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3118.799999999999</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3118.799999999999</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3118.8</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3118.8</v>
+      </c>
+      <c r="F22" t="n">
+        <v>12475.2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>232.41</v>
+      </c>
+      <c r="C23" t="n">
+        <v>177.4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>20.19</v>
+      </c>
+      <c r="E23" t="n">
+        <v>427.73</v>
+      </c>
+      <c r="F23" t="n">
+        <v>857.73</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Employee related expenses</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Taxes &amp; Regulatory</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Bank charges</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Non-operating income/(expense)</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Financial Statements/df_DAN.xlsx
+++ b/Financial Statements/df_DAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -654,105 +654,105 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
+          <t>Monthly Total Revenue</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>46542.64</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25229.8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5425</v>
+      </c>
+      <c r="F10" t="n">
+        <v>77197.44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MD payroll</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Clinical payroll</t>
+          <t>MD payroll</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>31778.08</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>31242.46999999999</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>27656.2</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>23433.28</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>114110.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lab payroll</t>
+          <t>Clinical payroll</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>31778.08</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>31242.46999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>27656.2</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>23433.28</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>114110.03</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ASC payroll</t>
+          <t>Lab payroll</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -774,149 +774,149 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Supplies</t>
+          <t>ASC payroll</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>893.2</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>729.9100000000001</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1983.47</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>3606.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Medication</t>
+          <t>Supplies</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10842.64</v>
+        <v>893.2</v>
       </c>
       <c r="C16" t="n">
-        <v>25229.8</v>
+        <v>729.9100000000001</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1983.47</v>
       </c>
       <c r="F16" t="n">
-        <v>36072.44</v>
+        <v>3606.58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Medical services</t>
+          <t>Medication</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2621.409999999999</v>
+        <v>10842.64</v>
       </c>
       <c r="C17" t="n">
-        <v>1992.38</v>
+        <v>25229.8</v>
       </c>
       <c r="D17" t="n">
-        <v>2447.79</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2339.97</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>9401.549999999999</v>
+        <v>36072.44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
+          <t>Medical services</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2621.409999999999</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1992.38</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2447.79</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2339.97</v>
+      </c>
+      <c r="F18" t="n">
+        <v>9401.549999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Payroll</t>
+          <t>Monthly Total COGS</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>46135.32999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>59194.55999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>30103.99000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>27756.72</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>163190.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Marketing</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Professional fees</t>
+          <t>Payroll</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -938,95 +938,95 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Rent</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3118.799999999999</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>3118.799999999999</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>3118.8</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>3118.8</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>12475.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>Professional fees</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>232.41</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>177.4</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>20.19</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>427.73</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>857.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>3118.799999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>3118.799999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>3118.8</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>3118.8</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>12475.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Employee related expenses</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>232.41</v>
       </c>
       <c r="C25" t="n">
-        <v>1000</v>
+        <v>177.4</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>20.19</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>427.73</v>
       </c>
       <c r="F25" t="n">
-        <v>1000</v>
+        <v>857.73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Taxes &amp; Regulatory</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1048,14 +1048,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Bank charges</t>
+          <t>Employee related expenses</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1064,13 +1064,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Taxes &amp; Regulatory</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1092,54 +1092,98 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
+          <t>Bank charges</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>Non-operating income/(expense)</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Financial Statements/df_DAN.xlsx
+++ b/Financial Statements/df_DAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1136,54 +1136,98 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
+          <t>Monthly Total OpEx</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>3351.209999999999</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4296.199999999999</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3138.99</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3546.53</v>
+      </c>
+      <c r="F31" t="n">
+        <v>14332.93</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
           <t>Non-operating income/(expense)</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Monthly Total Non OpEx</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>0</v>
       </c>
     </row>
